--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ednrb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.63243842228038</v>
+        <v>7.803861666666666</v>
       </c>
       <c r="H2">
-        <v>2.63243842228038</v>
+        <v>23.411585</v>
       </c>
       <c r="I2">
-        <v>0.8818161431717046</v>
+        <v>0.7185921299200277</v>
       </c>
       <c r="J2">
-        <v>0.8818161431717046</v>
+        <v>0.7185921299200276</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.7971553586471</v>
+        <v>26.46535033333333</v>
       </c>
       <c r="N2">
-        <v>15.7971553586471</v>
+        <v>79.396051</v>
       </c>
       <c r="O2">
-        <v>0.2255130188663176</v>
+        <v>0.3009886585509795</v>
       </c>
       <c r="P2">
-        <v>0.2255130188663176</v>
+        <v>0.3009886585509795</v>
       </c>
       <c r="Q2">
-        <v>41.58503872883502</v>
+        <v>206.5319329612039</v>
       </c>
       <c r="R2">
-        <v>41.58503872883502</v>
+        <v>1858.787396650835</v>
       </c>
       <c r="S2">
-        <v>0.198861020531704</v>
+        <v>0.2162880812299203</v>
       </c>
       <c r="T2">
-        <v>0.198861020531704</v>
+        <v>0.2162880812299203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.63243842228038</v>
+        <v>7.803861666666666</v>
       </c>
       <c r="H3">
-        <v>2.63243842228038</v>
+        <v>23.411585</v>
       </c>
       <c r="I3">
-        <v>0.8818161431717046</v>
+        <v>0.7185921299200277</v>
       </c>
       <c r="J3">
-        <v>0.8818161431717046</v>
+        <v>0.7185921299200276</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.2527044590317</v>
+        <v>0.04671833333333333</v>
       </c>
       <c r="N3">
-        <v>54.2527044590317</v>
+        <v>0.140155</v>
       </c>
       <c r="O3">
-        <v>0.7744869811336824</v>
+        <v>0.000531324479087915</v>
       </c>
       <c r="P3">
-        <v>0.7744869811336824</v>
+        <v>0.000531324479087915</v>
       </c>
       <c r="Q3">
-        <v>142.8169037305771</v>
+        <v>0.3645834106305555</v>
       </c>
       <c r="R3">
-        <v>142.8169037305771</v>
+        <v>3.281250695675</v>
       </c>
       <c r="S3">
-        <v>0.6829551226400006</v>
+        <v>0.0003818055891064341</v>
       </c>
       <c r="T3">
-        <v>0.6829551226400006</v>
+        <v>0.000381805589106434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.35280792715938</v>
+        <v>7.803861666666666</v>
       </c>
       <c r="H4">
-        <v>0.35280792715938</v>
+        <v>23.411585</v>
       </c>
       <c r="I4">
-        <v>0.1181838568282954</v>
+        <v>0.7185921299200277</v>
       </c>
       <c r="J4">
-        <v>0.1181838568282954</v>
+        <v>0.7185921299200276</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.7971553586471</v>
+        <v>61.41599633333334</v>
       </c>
       <c r="N4">
-        <v>15.7971553586471</v>
+        <v>184.247989</v>
       </c>
       <c r="O4">
-        <v>0.2255130188663176</v>
+        <v>0.6984800169699326</v>
       </c>
       <c r="P4">
-        <v>0.2255130188663176</v>
+        <v>0.6984800169699326</v>
       </c>
       <c r="Q4">
-        <v>5.573361637098975</v>
+        <v>479.2819395058406</v>
       </c>
       <c r="R4">
-        <v>5.573361637098975</v>
+        <v>4313.537455552565</v>
       </c>
       <c r="S4">
-        <v>0.02665199833461355</v>
+        <v>0.501922243101001</v>
       </c>
       <c r="T4">
-        <v>0.02665199833461355</v>
+        <v>0.5019222431010009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.696109</v>
+      </c>
+      <c r="H5">
+        <v>8.088327</v>
+      </c>
+      <c r="I5">
+        <v>0.2482620517329206</v>
+      </c>
+      <c r="J5">
+        <v>0.2482620517329206</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>26.46535033333333</v>
+      </c>
+      <c r="N5">
+        <v>79.396051</v>
+      </c>
+      <c r="O5">
+        <v>0.3009886585509795</v>
+      </c>
+      <c r="P5">
+        <v>0.3009886585509795</v>
+      </c>
+      <c r="Q5">
+        <v>71.35346922185299</v>
+      </c>
+      <c r="R5">
+        <v>642.181222996677</v>
+      </c>
+      <c r="S5">
+        <v>0.07472406192020566</v>
+      </c>
+      <c r="T5">
+        <v>0.07472406192020564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.696109</v>
+      </c>
+      <c r="H6">
+        <v>8.088327</v>
+      </c>
+      <c r="I6">
+        <v>0.2482620517329206</v>
+      </c>
+      <c r="J6">
+        <v>0.2482620517329206</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04671833333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.140155</v>
+      </c>
+      <c r="O6">
+        <v>0.000531324479087915</v>
+      </c>
+      <c r="P6">
+        <v>0.000531324479087915</v>
+      </c>
+      <c r="Q6">
+        <v>0.125957718965</v>
+      </c>
+      <c r="R6">
+        <v>1.133619470685</v>
+      </c>
+      <c r="S6">
+        <v>0.0001319077053142911</v>
+      </c>
+      <c r="T6">
+        <v>0.000131907705314291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.696109</v>
+      </c>
+      <c r="H7">
+        <v>8.088327</v>
+      </c>
+      <c r="I7">
+        <v>0.2482620517329206</v>
+      </c>
+      <c r="J7">
+        <v>0.2482620517329206</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>61.41599633333334</v>
+      </c>
+      <c r="N7">
+        <v>184.247989</v>
+      </c>
+      <c r="O7">
+        <v>0.6984800169699326</v>
+      </c>
+      <c r="P7">
+        <v>0.6984800169699326</v>
+      </c>
+      <c r="Q7">
+        <v>165.584220458267</v>
+      </c>
+      <c r="R7">
+        <v>1490.257984124403</v>
+      </c>
+      <c r="S7">
+        <v>0.1734060821074007</v>
+      </c>
+      <c r="T7">
+        <v>0.1734060821074007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3599613333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.079884</v>
+      </c>
+      <c r="I8">
+        <v>0.03314581834705166</v>
+      </c>
+      <c r="J8">
+        <v>0.03314581834705165</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.46535033333333</v>
+      </c>
+      <c r="N8">
+        <v>79.396051</v>
+      </c>
+      <c r="O8">
+        <v>0.3009886585509795</v>
+      </c>
+      <c r="P8">
+        <v>0.3009886585509795</v>
+      </c>
+      <c r="Q8">
+        <v>9.526502793120445</v>
+      </c>
+      <c r="R8">
+        <v>85.738525138084</v>
+      </c>
+      <c r="S8">
+        <v>0.009976515400853524</v>
+      </c>
+      <c r="T8">
+        <v>0.009976515400853522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.35280792715938</v>
-      </c>
-      <c r="H5">
-        <v>0.35280792715938</v>
-      </c>
-      <c r="I5">
-        <v>0.1181838568282954</v>
-      </c>
-      <c r="J5">
-        <v>0.1181838568282954</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>54.2527044590317</v>
-      </c>
-      <c r="N5">
-        <v>54.2527044590317</v>
-      </c>
-      <c r="O5">
-        <v>0.7744869811336824</v>
-      </c>
-      <c r="P5">
-        <v>0.7744869811336824</v>
-      </c>
-      <c r="Q5">
-        <v>19.14078420298143</v>
-      </c>
-      <c r="R5">
-        <v>19.14078420298143</v>
-      </c>
-      <c r="S5">
-        <v>0.09153185849368181</v>
-      </c>
-      <c r="T5">
-        <v>0.09153185849368181</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3599613333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.079884</v>
+      </c>
+      <c r="I9">
+        <v>0.03314581834705166</v>
+      </c>
+      <c r="J9">
+        <v>0.03314581834705165</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04671833333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.140155</v>
+      </c>
+      <c r="O9">
+        <v>0.000531324479087915</v>
+      </c>
+      <c r="P9">
+        <v>0.000531324479087915</v>
+      </c>
+      <c r="Q9">
+        <v>0.01681679355777778</v>
+      </c>
+      <c r="R9">
+        <v>0.15135114202</v>
+      </c>
+      <c r="S9">
+        <v>1.761118466718988E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.761118466718987E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3599613333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.079884</v>
+      </c>
+      <c r="I10">
+        <v>0.03314581834705166</v>
+      </c>
+      <c r="J10">
+        <v>0.03314581834705165</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>61.41599633333334</v>
+      </c>
+      <c r="N10">
+        <v>184.247989</v>
+      </c>
+      <c r="O10">
+        <v>0.6984800169699326</v>
+      </c>
+      <c r="P10">
+        <v>0.6984800169699326</v>
+      </c>
+      <c r="Q10">
+        <v>22.10738392814178</v>
+      </c>
+      <c r="R10">
+        <v>198.966455353276</v>
+      </c>
+      <c r="S10">
+        <v>0.02315169176153094</v>
+      </c>
+      <c r="T10">
+        <v>0.02315169176153094</v>
       </c>
     </row>
   </sheetData>
